--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2117.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2117.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.512085525058485</v>
+        <v>0.8811536431312561</v>
       </c>
       <c r="B1">
-        <v>1.783047163303774</v>
+        <v>2.703952074050903</v>
       </c>
       <c r="C1">
-        <v>1.448717356623296</v>
+        <v>3.384826898574829</v>
       </c>
       <c r="D1">
-        <v>1.462687267079366</v>
+        <v>1.913663983345032</v>
       </c>
       <c r="E1">
-        <v>1.646417048887405</v>
+        <v>1.468409180641174</v>
       </c>
     </row>
   </sheetData>
